--- a/data-pemotongan-ternak.xlsx
+++ b/data-pemotongan-ternak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Company\TUBES STATISKTIKA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5728C48B-93AA-488E-B175-1B14C4ECEEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE209E59-71DA-49AD-96D1-13FFC7A37292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0704C2C9-4A86-4540-BF91-B8CBBFA9111D}"/>
   </bookViews>
@@ -578,12 +578,12 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:I1634"/>
+  <dimension ref="A1:G1634"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1610" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I1614" sqref="I1614"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,7 +596,7 @@
     <col min="7" max="7" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -605,7 +605,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:9" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -651,7 +651,7 @@
         <v>59442</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -673,12 +673,8 @@
       <c r="G4" s="4">
         <v>62082</v>
       </c>
-      <c r="I4">
-        <f>COUNTBLANK(A3:G1634)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -701,7 +697,7 @@
         <v>82930</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -724,7 +720,7 @@
         <v>46603</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -747,7 +743,7 @@
         <v>25714</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -770,7 +766,7 @@
         <v>58287</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -793,7 +789,7 @@
         <v>13479</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -816,7 +812,7 @@
         <v>46894</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -839,7 +835,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -862,7 +858,7 @@
         <v>4717</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -885,7 +881,7 @@
         <v>67079</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -908,7 +904,7 @@
         <v>289206</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -931,7 +927,7 @@
         <v>250699</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
